--- a/us/readme/09122017-网站字号规范对照表格（第二版）修订版.xlsx
+++ b/us/readme/09122017-网站字号规范对照表格（第二版）修订版.xlsx
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
